--- a/scanned_files_2025.xlsx
+++ b/scanned_files_2025.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,29 +493,44 @@
           <t>notes</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>hash</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>cached_at</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024年直播带岗发展报告.pdf</t>
+          <t>2023-2024全国宠物主人调查（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\互联网技术\2024年直播带岗发展报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023-2024全国宠物主人调查（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.81</v>
+        <v>1.97</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45830.41086174354</v>
+        <v>45902.38485793738</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45830.41086728703</v>
+        <v>45565.39927382681</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45900.82084375533</v>
+        <v>45902.38486979156</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -526,29 +541,42 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>53421e067be48f78f95dd2fe0ad1e258</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45903.45383255015</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>哔哩哔哩运营：2025哔哩哔哩手机PC行业白皮书.pdf</t>
+          <t>2023中国宠物食品行业研究框架：长坡厚雪，国产崛起（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\互联网技术\哔哩哔哩运营：2025哔哩哔哩手机PC行业白皮书.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023中国宠物食品行业研究框架：长坡厚雪，国产崛起（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23.9</v>
+        <v>3.49</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45658.91670668427</v>
+        <v>45902.3848765638</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45658.91671261639</v>
+        <v>45565.39920521655</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45900.82174471542</v>
+        <v>45902.38489478911</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -559,29 +587,42 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>b8ef4c87b0cf623e1f4c1c51e028658d</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>45903.45383255015</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>「见新机 · 聚增长」2025哔哩哔哩手机PC行业白皮书.pdf</t>
+          <t>【脚本】霸王茶姬品牌手册- 以东方茶会世界友.pdf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\互联网技术\「见新机 · 聚增长」2025哔哩哔哩手机PC行业白皮书.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\餐饮服务\【脚本】霸王茶姬品牌手册- 以东方茶会世界友.pdf</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23.9</v>
+        <v>7.34</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45658.91671715336</v>
+        <v>45902.38560788861</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45658.91671715336</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45900.82224790309</v>
+        <v>45902.38568022312</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -592,29 +633,42 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>00cc0ca8bd54554b882c07f59e740833</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>45903.45383255015</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AI智能音箱：声学技术与AI融合，开启智能家居新篇章.pdf</t>
+          <t>2024 中国小宠消费者洞察MINI蓝皮书.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\人工智能\AI智能音箱：声学技术与AI融合，开启智能家居新篇章.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024 中国小宠消费者洞察MINI蓝皮书.pdf</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.57</v>
+        <v>13.65</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45658.91669512845</v>
+        <v>45902.38495245594</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45658.91669571849</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45900.82452611316</v>
+        <v>45902.38500236314</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -625,29 +679,42 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>03fa051d539f7731ec6544344133f15b</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>45903.45383255015</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024年全球财富报告：生成式AI引领财富管理新纪元.pdf</t>
+          <t>2023宠物消费网络营销洞察数据报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\人工智能\2024年全球财富报告：生成式AI引领财富管理新纪元.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物消费网络营销洞察数据报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.21</v>
+        <v>4.95</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45658.91669139842</v>
+        <v>45902.38488978438</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45658.91669618145</v>
+        <v>45565.39922220708</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45900.82465921322</v>
+        <v>45902.38491175583</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -658,29 +725,42 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>f053916aa8003c0c1d67b7e19c68df12</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>45903.45383256169</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024年中国AI创业者人群画像报告-IT桔子.pdf</t>
+          <t>2023中国宠物健康行业：探索宠物保险市场（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\人工智能\2024年中国AI创业者人群画像报告-IT桔子.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023中国宠物健康行业：探索宠物保险市场（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.1</v>
+        <v>1.1</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45658.91669524458</v>
+        <v>45902.38486953693</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45658.91669997769</v>
+        <v>45565.39920322585</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45900.82535790752</v>
+        <v>45902.38487961442</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -691,29 +771,42 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>70a82148c046b317dfbfafbfec6b5f00</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>45903.45383256169</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>电子行业深度报告：AI新范式：云厂商引领+内需为王.pdf</t>
+          <t>2023年宠物保健品消费趋势报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\人工智能\电子行业深度报告：AI新范式：云厂商引领+内需为王.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023年宠物保健品消费趋势报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.69</v>
+        <v>5.74</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45658.91670377392</v>
+        <v>45902.38493469446</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45658.91670377392</v>
+        <v>45565.39924317904</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45900.82576456871</v>
+        <v>45902.3849792492</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -724,29 +817,42 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>d8d1d3343f50423492da17bfabefb78c</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>45903.45383256169</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024年治理人工智能，助力造福人类：最后报告.pdf</t>
+          <t>2024宠物食品行业深度报告：从零食到主粮，从代工依赖到海内外均衡发展（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\人工智能\2024年治理人工智能，助力造福人类：最后报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024宠物食品行业深度报告：从零食到主粮，从代工依赖到海内外均衡发展（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12.35</v>
+        <v>5.74</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45658.91670266358</v>
+        <v>45902.38497601887</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45658.91670664425</v>
+        <v>45565.39920933687</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45900.82627817291</v>
+        <v>45902.38503368236</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -757,29 +863,42 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>efdde06695c65ec5bc781e63e3106985</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>45903.45383256169</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>可信人工智能治理调研报告（2024-2025）.pdf</t>
+          <t>2022宠物行业出海报告-Shoptop.pdf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\人工智能\可信人工智能治理调研报告（2024-2025）.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2022宠物行业出海报告-Shoptop.pdf</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12.81</v>
+        <v>7.85</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45702.38215602408</v>
+        <v>45902.38485293626</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45702.38215931051</v>
+        <v>45565.39595558128</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45900.82657275228</v>
+        <v>45902.38486125913</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -790,29 +909,42 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>b6e58944ad4f69d629702fcbed57d376</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>45903.45383256169</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DeepSeek内部研讨系列：AI+Agent与Agentic+AI的原理与应用PPT.pdf</t>
+          <t>2024年全球宠物行业洞察报告（9月刊）.pdf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\人工智能\DeepSeek内部研讨系列：AI+Agent与Agentic+AI的原理与应用PPT.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024年全球宠物行业洞察报告（9月刊）.pdf</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>39.12</v>
+        <v>7.47</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45826.34538824288</v>
+        <v>45902.38498524657</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45826.34538974836</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45900.83047084788</v>
+        <v>45902.38504929512</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -823,29 +955,42 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>3ef814b67650e64a9ff23ae5c75d00d7</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>45903.45383257323</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024年马士基亚太区独家趋势与洞察蓝皮书-锚定2024年亚太区物流的挑战和制胜之道.pdf</t>
+          <t>2024春节置业意向调查.pdf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\企业管理\2024年马士基亚太区独家趋势与洞察蓝皮书-锚定2024年亚太区物流的挑战和制胜之道.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2024春节置业意向调查.pdf</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.99</v>
+        <v>6.13</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45658.91669409814</v>
+        <v>45902.38597821992</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45658.91669409814</v>
+        <v>45565.40441482679</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45900.83192018014</v>
+        <v>45902.38599280712</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -856,29 +1001,42 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>23d894fc174aea5929d148126be98acf</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>45903.45383257323</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024年数字化转型之道-全面总结华为公司数字化转型理念、 方法和实践报告-华为.pdf</t>
+          <t>2023宠物经济小微观察报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\企业管理\2024年数字化转型之道-全面总结华为公司数字化转型理念、 方法和实践报告-华为.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物经济小微观察报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.66</v>
+        <v>2.43</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45666.93621768288</v>
+        <v>45902.38489862639</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45666.93621987722</v>
+        <v>45565.39927447496</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45900.83208740011</v>
+        <v>45902.38492460034</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -889,29 +1047,42 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>67a442a382db53e4d7f610d95dc2b10c</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>45903.45383257323</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>更先进供应链2024跨境供应链洞察报告.pdf</t>
+          <t>2023年中国宠物保险行业专题报告：毛孩子医保一片蓝海（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\企业管理\更先进供应链2024跨境供应链洞察报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023年中国宠物保险行业专题报告：毛孩子医保一片蓝海（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.82</v>
+        <v>1.58</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45658.9166957883</v>
+        <v>45902.38492446145</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45658.91669900547</v>
+        <v>45565.39924711418</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45900.83236211861</v>
+        <v>45902.38496306587</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -922,62 +1093,88 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>f7fc34a3ef7e654191ae5081d87cbc0b</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>45903.45383257323</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024年企业级研发管理系统迁移指南报告.pdf</t>
+          <t>2024地产“爱在重阳·金秋答蟹会”活动策划方案.pptx</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\企业管理\2024年企业级研发管理系统迁移指南报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2024地产“爱在重阳·金秋答蟹会”活动策划方案.pptx</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>33.46</v>
+        <v>49.51</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45658.91670856671</v>
+        <v>45902.3859796397</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45658.91671048678</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45900.83320335724</v>
+        <v>45902.38599683154</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>.pdf</t>
+          <t>.pptx</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>098a82a03a5a37f1c7bd05dde6b87109</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>45903.45383257323</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>罗戈研究：2024年最新供应链计划技术发展趋势报告.pdf</t>
+          <t>2023宠物行业深度系列：专业养宠消费升级，高端化迎来机遇（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\企业管理\罗戈研究：2024年最新供应链计划技术发展趋势报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物行业深度系列：专业养宠消费升级，高端化迎来机遇（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12.46</v>
+        <v>1.76</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45658.91671497747</v>
+        <v>45902.38491035537</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45658.91671497747</v>
+        <v>45565.39922776257</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45900.83377492359</v>
+        <v>45902.38493849232</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -988,29 +1185,42 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>574fc007ba5c3bc7c00b6c0363aa87d4</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>45903.45383258475</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024年生物科技报告-生物科技稳健创新；融资何时回归？.pdf</t>
+          <t>2024淘宝天猫宠物医药健康服务趋势洞察报告-淘天集团&amp;智篆GI.pdf</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\健康医疗\2024年生物科技报告-生物科技稳健创新；融资何时回归？.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024淘宝天猫宠物医药健康服务趋势洞察报告-淘天集团&amp;智篆GI.pdf</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.62</v>
+        <v>7.34</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45658.91668342705</v>
+        <v>45902.38499514981</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45658.91668960747</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45900.83500185145</v>
+        <v>45902.38506178544</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1021,29 +1231,42 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>6c17b178c697cb69feea26b6165e4163</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>45903.45383258475</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025中国医院创新转化报告.pdf</t>
+          <t>2023中国宠物行业市场现状及营销洞察报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\健康医疗\2025中国医院创新转化报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023中国宠物行业市场现状及营销洞察报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17.19</v>
+        <v>2.41</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45839.23860676866</v>
+        <v>45902.38487150452</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45839.23860873922</v>
+        <v>45565.39920748505</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45900.83584656226</v>
+        <v>45902.38488466865</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1054,29 +1277,42 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0cf9d55c863f0a75547a0842130e3ef7</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>45903.45383258475</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024年未来健康空间生态产业发展白皮书.pdf</t>
+          <t>2023-2024亚马逊欧洲站-宠物品类新卖家选品推荐报告-亚马逊全球开店.pdf</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\健康医疗\2024年未来健康空间生态产业发展白皮书.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023-2024亚马逊欧洲站-宠物品类新卖家选品推荐报告-亚马逊全球开店.pdf</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.17</v>
+        <v>7.36</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45658.91669854568</v>
+        <v>45902.38485642118</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45658.9167009036</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45900.83604503179</v>
+        <v>45902.38486741929</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,29 +1323,42 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>f9d6816b584fb5590264458c52bd10e4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>45903.45383258475</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>细胞级抗衰专家指南-华熙生物&amp;夸迪_部分2.pdf</t>
+          <t>2024北美宠物智能用品市场分析报告.pdf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\健康医疗\细胞级抗衰专家指南-华熙生物&amp;夸迪_部分2.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024北美宠物智能用品市场分析报告.pdf</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>44</v>
+        <v>1.93</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45827.3305581751</v>
+        <v>45902.38496201261</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45827.33056242264</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45900.83618303919</v>
+        <v>45902.38501252924</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1120,29 +1369,42 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>00726013fdda2fb42cfc258f680f6d3c</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>45903.45383258475</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>政法数字化创新案例集（336页-智慧检务篇）.pdf</t>
+          <t>2024-2025年住房租赁行业发展报告-大租赁时代来临_从基本刚需到品质升级.pdf</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\健康医疗\政法数字化创新案例集（336页-智慧检务篇）.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2024-2025年住房租赁行业发展报告-大租赁时代来临_从基本刚需到品质升级.pdf</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15.49</v>
+        <v>1.76</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45658.91670581094</v>
+        <v>45902.38597268596</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45658.91670581094</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45900.83633002794</v>
+        <v>45902.38598170663</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1153,29 +1415,42 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>d5f18d79e76981e304900f148e6e8a1b</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>45903.45383259629</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>活性胶原贴敷料研究报告.pdf</t>
+          <t>2023住小帮家居家装洞察白皮书（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\健康医疗\活性胶原贴敷料研究报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2023住小帮家居家装洞察白皮书（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.92</v>
+        <v>3.44</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45658.91671414414</v>
+        <v>45902.38596749426</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45658.91671414414</v>
+        <v>45565.39930979857</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45900.83737047684</v>
+        <v>45902.3859762112</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1186,29 +1461,42 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>721d3d20b28abae7ef136ee0bf4f8a1b</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>45903.45383259629</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024年中山市细胞与基因治疗产业专利导航分析报告.pdf</t>
+          <t>2024BOMA中国商业地产行业人才发展调研报告.pdf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\健康医疗\2024年中山市细胞与基因治疗产业专利导航分析报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2024BOMA中国商业地产行业人才发展调研报告.pdf</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>38.2</v>
+        <v>2.31</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45658.91671951443</v>
+        <v>45902.38597555148</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45658.91671951443</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45900.83768797255</v>
+        <v>45902.38598782563</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1219,29 +1507,42 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>a501258ec792da919951719812a793aa</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>45903.45383259629</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>细胞级抗衰专家指南-华熙生物&amp;夸迪_部分3.pdf</t>
+          <t>2024-2025年TikTok Shop宠物类目市场分析报告-EchoTik.pdf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\健康医疗\细胞级抗衰专家指南-华熙生物&amp;夸迪_部分3.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024-2025年TikTok Shop宠物类目市场分析报告-EchoTik.pdf</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>42.62</v>
+        <v>4.48</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45827.33135007384</v>
+        <v>45902.38495619578</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45827.33135269177</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45900.83790926586</v>
+        <v>45902.38500456879</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1252,29 +1553,42 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>73c96294dd6afa62d0769fca3eeb9fad</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>45903.45383259629</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>小红书运营：S+级《小红书好食节》行业大事件招商通案.pdf</t>
+          <t>2023解数咨询第178期-宠物猫砂行业及优秀品牌分析-解数咨询（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\内容运营\小红书运营：S+级《小红书好食节》行业大事件招商通案.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023解数咨询第178期-宠物猫砂行业及优秀品牌分析-解数咨询（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>31.53</v>
+        <v>8.82</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45839.34442526964</v>
+        <v>45902.38494968972</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45839.34442526964</v>
+        <v>45565.39923350324</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45900.84451681545</v>
+        <v>45902.38499700803</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1285,29 +1599,42 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>c3c4db83407edc67f92db9fe81cf43b3</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>45903.45383259629</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025上半年热门行业数据简报（小红书平台）-千瓜数据.pdf</t>
+          <t>2024全球宠物用品市场洞察报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\内容运营\2025上半年热门行业数据简报（小红书平台）-千瓜数据.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024全球宠物用品市场洞察报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>46.33</v>
+        <v>7.39</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45843.2362088783</v>
+        <v>45902.38496053113</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45843.23620921819</v>
+        <v>45565.39921526273</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45900.84465417471</v>
+        <v>45902.38500999306</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1318,29 +1645,42 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>666bb8842129b5b26cda70e08410123f</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>45903.45383260783</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>电商运营：2024年直播带岗发展报告.pdf</t>
+          <t>2023东南亚宠物市场电商格局洞察（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\内容运营\电商运营：2024年直播带岗发展报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023东南亚宠物市场电商格局洞察（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>12.78</v>
+        <v>4.78</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45830.41575473303</v>
+        <v>45902.38486849525</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45830.41575473303</v>
+        <v>45565.39922975329</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45900.8448863475</v>
+        <v>45902.38487721195</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1351,29 +1691,42 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0fe61728a6c9b5b64fefbe51e5a3b5f4</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>45903.45383260783</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>小红书运营：2025小红书线索营销产品通案.pdf</t>
+          <t>2025宠物电商行业报告.pdf</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\内容运营\小红书运营：2025小红书线索营销产品通案.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2025宠物电商行业报告.pdf</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11.41</v>
+        <v>22.19</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45658.91671335712</v>
+        <v>45902.38501229775</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45658.91671335712</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45900.84736784175</v>
+        <v>45902.3850787522</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1384,29 +1737,42 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>bfa2100ac64a869c69ef76bb7b29bcea</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>45903.45383260783</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>新媒体运营：会写文案的人都这么写：新媒体写作一本通.pdf</t>
+          <t>2023宠物行业深度：全方位探究宠物食品赛道的稀缺性、趋势与投资机会（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\内容运营\新媒体运营：会写文案的人都这么写：新媒体写作一本通.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物行业深度：全方位探究宠物食品赛道的稀缺性、趋势与投资机会（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.43</v>
+        <v>2.74</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45658.91671368118</v>
+        <v>45902.38491088778</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45658.91671368118</v>
+        <v>45565.39922665147</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45900.84762464384</v>
+        <v>45902.38494141561</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1417,29 +1783,42 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>aa80394c54b6c031e3650d6030187e68</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>45903.45383260783</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>小红书运营：小红书2024灵感创作大赛2.0招商.pdf</t>
+          <t>2023宠物行业深度研究：全方位探究宠物食品赛道的稀缺性、趋势与投资机会（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\内容运营\小红书运营：小红书2024灵感创作大赛2.0招商.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物行业深度研究：全方位探究宠物食品赛道的稀缺性、趋势与投资机会（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20.38</v>
+        <v>2.69</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45702.40547461053</v>
+        <v>45902.38490964935</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45702.40547806087</v>
+        <v>45565.39922683666</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45900.84865800951</v>
+        <v>45902.38493595603</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1450,29 +1829,42 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>10fc00d31d9616de390a19dc5c9886d3</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>45903.45383260783</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024年中山市精密光学元器件产业专利导航分析报告.pdf</t>
+          <t>2024中国宠物市场营销白皮书（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\制造业\2024年中山市精密光学元器件产业专利导航分析报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024中国宠物市场营销白皮书（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>41.49</v>
+        <v>11.51</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45658.91670344986</v>
+        <v>45902.38495717958</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45658.91670344986</v>
+        <v>45565.39921618865</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45900.85187741046</v>
+        <v>45902.3850069375</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1483,29 +1875,42 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>45cd53d273340aab483bf06f847504a2</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>45903.45383261937</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>广州国际车展数据观察.pdf</t>
+          <t>2024宠物行业深度报告系列：宠物行业空间广阔，自主品牌大有可为（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\制造业\广州国际车展数据观察.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024宠物行业深度报告系列：宠物行业空间广阔，自主品牌大有可为（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.09</v>
+        <v>1.91</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45658.9167156719</v>
+        <v>45902.3849742297</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45658.9167156719</v>
+        <v>45565.39920868874</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45900.85245967111</v>
+        <v>45902.38502596878</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1516,29 +1921,42 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0430eb590737d4f6b344463853e12223</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>45903.45383261937</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2023-2024年中国Web3.0创新应用发展报告-赛迪.pdf</t>
+          <t>2025中国宠物食品行业现状报告.pdf</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\区块链\2023-2024年中国Web3.0创新应用发展报告-赛迪.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2025中国宠物食品行业现状报告.pdf</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.71</v>
+        <v>6.4</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45658.9166934963</v>
+        <v>45902.38500255492</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45658.9166934963</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45900.85274017658</v>
+        <v>45902.3850665561</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1549,29 +1967,42 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>31d4a2733cc19dac0bb2834f4df4f53d</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>45903.45383261937</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>宠物主粮零售渠道分层白皮书.pdf</t>
+          <t>2023宠物行业覆盖报告：子赛道爆发在即-把握自主品牌崛起机遇（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\宠物服务\宠物主粮零售渠道分层白皮书.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物行业覆盖报告：子赛道爆发在即-把握自主品牌崛起机遇（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>31.47</v>
+        <v>3.1</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45827.34272455552</v>
+        <v>45902.38491539672</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45827.34273090054</v>
+        <v>45565.39922405891</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45900.85459061409</v>
+        <v>45902.38494627165</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1582,29 +2013,42 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>d8822b2c5e31d05034eb7eca739cc63f</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>45903.45383261937</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>品牌运营：超级品牌人-品牌营销思维模型&amp;导图.pdf</t>
+          <t>2024-2025年上海楼市年报-或跃在渊无咎.pdf</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\广告业\品牌运营：超级品牌人-品牌营销思维模型&amp;导图.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2024-2025年上海楼市年报-或跃在渊无咎.pdf</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7.92</v>
+        <v>6.08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45658.91669066696</v>
+        <v>45902.38597147574</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45658.91669113523</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45900.85499259925</v>
+        <v>45902.38597900313</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1615,29 +2059,42 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>48c5bc2e6024314b0847fe646198f869</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>45903.45383261937</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>搜索推广&amp;信息流推广——投放“微信加粉后开口”“微信有效加粉”转化目标.pdf</t>
+          <t>2024智能化养宠兴起：解码智能宠物用品出海指南（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\广告业\搜索推广&amp;信息流推广——投放“微信加粉后开口”“微信有效加粉”转化目标.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024智能化养宠兴起：解码智能宠物用品出海指南（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7.11</v>
+        <v>2.73</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45658.91669307964</v>
+        <v>45902.38499385914</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45658.91669307964</v>
+        <v>45565.3992166516</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45900.85502278402</v>
+        <v>45902.38505704464</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1648,29 +2105,42 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>baccca61a05506808869c15ad6079752</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>45903.45383261937</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>小红书2024灵感创作大赛2.0招商.pdf</t>
+          <t>“成瘾性餐饮”洞察报告2024.pdf</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\广告业\小红书2024灵感创作大赛2.0招商.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\餐饮服务\“成瘾性餐饮”洞察报告2024.pdf</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24.66</v>
+        <v>5.01</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45702.38359299544</v>
+        <v>45902.38561132114</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45702.38359498217</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45900.85507801473</v>
+        <v>45902.38568773609</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1681,29 +2151,42 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>8010c5344e9ba982aa842a5ce756fd67</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>45903.4538326309</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024年度十大热梗营销回顾.pdf</t>
+          <t>2024宠物食品行业深度报告：如何看待宠物食品企业盈利能力提升空间？（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\广告业\2024年度十大热梗营销回顾.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024宠物食品行业深度报告：如何看待宠物食品企业盈利能力提升空间？（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17.72</v>
+        <v>2.35</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45658.91670479243</v>
+        <v>45902.38497712477</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45658.91670479243</v>
+        <v>45565.3992079017</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45900.85548777757</v>
+        <v>45902.38503603861</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1714,29 +2197,42 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>b2dc0e788e3f167645d8b9de6f1f55ca</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>45903.4538326309</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>小红书2024宝藏新品营销.pdf</t>
+          <t>2023年中国宠物食品经济展望报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\广告业\小红书2024宝藏新品营销.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023年中国宠物食品经济展望报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>12.12</v>
+        <v>2.9</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45665.55869740722</v>
+        <v>45902.38493388427</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45665.55869959715</v>
+        <v>45565.39925743813</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45900.85592994736</v>
+        <v>45902.38497530609</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1747,29 +2243,42 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>89af1e1035b85ce25b6f60f3723b7df0</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>45903.4538326309</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>虎啸：2024年虎啸年度洞察报告——汽车行业.pdf</t>
+          <t>2023年宠物电商分析报告-小U出海UseePay.pdf</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\广告业\虎啸：2024年虎啸年度洞察报告——汽车行业.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023年宠物电商分析报告-小U出海UseePay.pdf</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>9.460000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45658.91672011627</v>
+        <v>45902.38493586344</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45658.91672011627</v>
+        <v>45565.39707390063</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45900.85611429666</v>
+        <v>45902.38498223532</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1780,29 +2289,42 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>e2e14d74957f2da9783b3f9cf07469a6</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>45903.4538326309</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025汽车CNY春节营销感恩每一份爱整合营销案.pdf</t>
+          <t>《2025年餐饮业技术研究报告：优化投资回报率》.pdf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\广告业\2025汽车CNY春节营销感恩每一份爱整合营销案.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\餐饮服务\《2025年餐饮业技术研究报告：优化投资回报率》.pdf</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8.199999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45658.91671584868</v>
+        <v>45902.38561370708</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45658.91672127367</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45900.85612485207</v>
+        <v>45902.38567755408</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1813,29 +2335,42 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>b55c21138c76f5c87e71c99a79ec6d3a</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>45903.4538326309</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>艾瑞咨询：2024年汽车行业网络营销监测报告.pdf</t>
+          <t>2023天元宠物度研究报告：深耕宠物用品二十年专注自身平台化能力（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\广告业\艾瑞咨询：2024年汽车行业网络营销监测报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023天元宠物度研究报告：深耕宠物用品二十年专注自身平台化能力（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.2</v>
+        <v>2.67</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45658.91672155143</v>
+        <v>45902.38488163988</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45658.91672155143</v>
+        <v>45565.39919799442</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45900.85627540553</v>
+        <v>45902.38490277225</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1846,29 +2381,42 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>03c44579c13a8d6e7f13ca3214eff0cf</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>45903.4538326309</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>卓越指数 • 2024物流仓储暨基础设施投资发展报告.pdf</t>
+          <t>2024宠物经济核心七问：空间？创新？618战绩？（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\房地产\卓越指数 • 2024物流仓储暨基础设施投资发展报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024宠物经济核心七问：空间？创新？618战绩？（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.68</v>
+        <v>4.01</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45658.91669238264</v>
+        <v>45902.38497041776</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45658.91669821845</v>
+        <v>45565.39920706838</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45900.85677030608</v>
+        <v>45902.38502227255</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1879,29 +2427,42 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>13d5a06fd55afac54c30215691087369</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>45903.4538326309</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>小红书运营：2025小红书兴趣培训行业营销通案.pdf</t>
+          <t>2023中国宠物行业趋势洞察白皮书.pdf</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\教育培训\小红书运营：2025小红书兴趣培训行业营销通案.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023中国宠物行业趋势洞察白皮书.pdf</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>36.38</v>
+        <v>1.08</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45840.26141042523</v>
+        <v>45902.38487338093</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45840.26141042523</v>
+        <v>45565.39521313686</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45900.85828945168</v>
+        <v>45902.38488716864</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1912,29 +2473,42 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>427e96b7ab7c0f039687e6202fa4b136</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>45903.4538326309</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>《会写文案的人都这么写：新媒体写作一本通》长安野望.pdf</t>
+          <t>2025宠物消费趋势报告-英文版.pdf</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\教育培训\《会写文案的人都这么写：新媒体写作一本通》长安野望.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2025宠物消费趋势报告-英文版.pdf</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.43</v>
+        <v>10.83</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45658.91669623719</v>
+        <v>45902.38500784029</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45658.91669928325</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45900.85859555855</v>
+        <v>45902.38507636795</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1945,29 +2519,42 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>6e8cf1616b3f2670cc0fabcf07e46d14</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>45903.4538326309</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>中国人力资本报告2024.pdf</t>
+          <t>2023年中国宠物主粮行业概览（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\教育培训\中国人力资本报告2024.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023年中国宠物主粮行业概览（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10.78</v>
+        <v>4.19</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45658.91670591151</v>
+        <v>45902.38492338506</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45658.91671104234</v>
+        <v>45565.39925873441</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45900.8590360154</v>
+        <v>45902.38496305428</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1978,29 +2565,42 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2fbb9a3399a4087f9d2f58983f253678</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>45903.4538326309</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024小红书素质教育行业营销通案.pdf</t>
+          <t>2024宠物行业全球贸易趋势分析报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\教育培训\2024小红书素质教育行业营销通案.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024宠物行业全球贸易趋势分析报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.99</v>
+        <v>8.23</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45658.91671520894</v>
+        <v>45902.38497162797</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45658.91671520894</v>
+        <v>45565.39920850355</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45900.85941351017</v>
+        <v>45902.38502631598</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2011,29 +2611,42 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0abb2b48edd196ade9e0b8f8ba0874a0</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>人工智能专题：DeepSeek在教育和学术领域的应用场景与案例(上中下合集).pdf</t>
+          <t>2023从数出发洞悉东南亚宠物市场电商格局报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\教育培训\人工智能专题：DeepSeek在教育和学术领域的应用场景与案例(上中下合集).pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023从数出发洞悉东南亚宠物市场电商格局报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>24.47</v>
+        <v>4.91</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45825.36722647676</v>
+        <v>45902.38487743184</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45825.36722647676</v>
+        <v>45565.39922887367</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45900.8595134162</v>
+        <v>45902.38489765416</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2044,29 +2657,42 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>7cecb2ffc85670853c95abe1911a3854</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>小红书影视综娱乐营销2024年度合作方案.pdf</t>
+          <t>2024大宠物行业趋势快速报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\文化娱乐\小红书影视综娱乐营销2024年度合作方案.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024大宠物行业趋势快速报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>34.44</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45703.23050221887</v>
+        <v>45902.38496253345</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45703.23050221887</v>
+        <v>45565.39921165165</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45900.85976818118</v>
+        <v>45902.38501683611</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2077,29 +2703,42 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>cd19d13a9004786762ad9303e87b8119</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024年24个年轻人心态趋势关键词报告-猫眼研究院&amp;玖九咨询.pdf</t>
+          <t>2023一起掘金它经济-宠物行业品类突围白皮书（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\文化娱乐\2024年24个年轻人心态趋势关键词报告-猫眼研究院&amp;玖九咨询.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023一起掘金它经济-宠物行业品类突围白皮书（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>34.78</v>
+        <v>12.25</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45662.58670453097</v>
+        <v>45902.38485983552</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45662.58670453097</v>
+        <v>45565.39919924441</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>45900.86056196647</v>
+        <v>45902.38487242552</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2110,29 +2749,42 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>b1fe641937e76e13e7a597ce18f3a826</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024全球电竞运动行业发展报告.pdf</t>
+          <t>2024宠物食品行业调研报告：市场扩容，国产崛起（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\文化娱乐\2024全球电竞运动行业发展报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024宠物食品行业调研报告：市场扩容，国产崛起（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>35.38</v>
+        <v>0.68</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45826.34812550541</v>
+        <v>45902.38497847893</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45826.34812550541</v>
+        <v>45565.39920753134</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45900.86061326206</v>
+        <v>45902.38504150423</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2143,29 +2795,42 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>61963624b952d6846d2826afc25ec5fa</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024中国微短剧出海商业生态观察报告-剧风营.pdf</t>
+          <t>2023宠物业务收入翻倍，动保期待回暖（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\文化娱乐\2024中国微短剧出海商业生态观察报告-剧风营.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物业务收入翻倍，动保期待回暖（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.58</v>
+        <v>0.35</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45658.9167135423</v>
+        <v>45902.38488254266</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45658.9167135423</v>
+        <v>45565.39922780886</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45900.86098691428</v>
+        <v>45902.38490533012</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2176,29 +2841,42 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>4a54b870d40b58adac0ea82762c437f7</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024年爱奇艺《我是刑警2》热度分析与招商简析报告.pdf</t>
+          <t>2023宠物行业&amp;宠物智能用品品牌调研（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\文化娱乐\2024年爱奇艺《我是刑警2》热度分析与招商简析报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物行业&amp;宠物智能用品品牌调研（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.15</v>
+        <v>13.84</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45658.91671318787</v>
+        <v>45902.3848993787</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45658.91671391266</v>
+        <v>45565.39922317929</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45900.86105293188</v>
+        <v>45902.38492710674</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2209,29 +2887,42 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>dfccd1b73c35f9827f3151336224f81e</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>绿色氢及相关商品贸易潜力分析(英译中).pdf</t>
+          <t>2023宠物食品行业分析报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\新能源\绿色氢及相关商品贸易潜力分析(英译中).pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物食品行业分析报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45846.23049918577</v>
+        <v>45902.38491702867</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45846.23049918577</v>
+        <v>45565.39928016932</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45846.23049918577</v>
+        <v>45902.38495170361</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2242,29 +2933,42 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>969e5d2881ac54acd8ef7c96d70f1189</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024年中山市氢能产业专利导航分析报告.pdf</t>
+          <t>2023宠物行业蓝皮书：中国宠物行业发展报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\新能源\2024年中山市氢能产业专利导航分析报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物行业蓝皮书：中国宠物行业发展报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6.72</v>
+        <v>14.21</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45658.91670478456</v>
+        <v>45902.38491189473</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45658.91670844978</v>
+        <v>45565.3992263737</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45900.86353123085</v>
+        <v>45902.38494389897</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2275,29 +2979,42 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>d5294ed3f71ffcc70a8c9612fc9c85c5</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024年智能无感接近式协议iTAP白皮书.pdf</t>
+          <t>2023年淘系宠物健康赛道趋势洞察报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\智能制造\2024年智能无感接近式协议iTAP白皮书.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023年淘系宠物健康赛道趋势洞察报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45658.91668819406</v>
+        <v>45902.38494171655</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45658.91668909822</v>
+        <v>45565.39924674382</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45900.86674975104</v>
+        <v>45902.38498459842</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2308,29 +3025,42 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>88069194531296fd40d9e86d7cb257aa</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>智慧园区智能化集成系统方案.pdf</t>
+          <t>2025Z世代宠物时尚白皮书.pdf</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\智能制造\智慧园区智能化集成系统方案.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2025Z世代宠物时尚白皮书.pdf</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4.35</v>
+        <v>33.58</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45658.91670711165</v>
+        <v>45902.38499682286</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45658.91670789423</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>45900.86780033832</v>
+        <v>45902.38506415812</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2341,29 +3071,42 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>3626c659f557327d0a0da6bdbd2231b5</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024年上海市工业互联网标识解析创新应用案例集-上海市通信学会.pdf</t>
+          <t>2024Q1房地产金融报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\智能制造\2024年上海市工业互联网标识解析创新应用案例集-上海市通信学会.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2024Q1房地产金融报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>20.94</v>
+        <v>2.58</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45666.93553845271</v>
+        <v>45902.38597623435</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45666.93553845271</v>
+        <v>45565.40480736805</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45900.86838574688</v>
+        <v>45902.38598781406</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2374,29 +3117,42 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>789ef527574b61fed336d476f18af316</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>品牌运营：2024年兰研品牌手册美妆护肤.pdf</t>
+          <t>2025宠物行业消费趋势报告.pdf</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\消费品\品牌运营：2024年兰研品牌手册美妆护肤.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2025宠物行业消费趋势报告.pdf</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>13.04</v>
+        <v>1.1</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45658.91669057967</v>
+        <v>45902.38501699815</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45658.91669057967</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45900.87001035398</v>
+        <v>45902.38508115544</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2407,29 +3163,42 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>26ceac931ddbee1dbadd389ae91521e9</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>45903.45383264243</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>虎啸：2024年虎啸年度洞察报告——3C家电行业.pdf</t>
+          <t>2023中国宠物经济消费洞察（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\消费品\虎啸：2024年虎啸年度洞察报告——3C家电行业.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023中国宠物经济消费洞察（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7.96</v>
+        <v>1.62</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45658.91669173707</v>
+        <v>45902.38486996516</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45658.91669173707</v>
+        <v>45565.3992048462</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45900.87015095388</v>
+        <v>45902.38487963757</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2440,29 +3209,42 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>5224bf7e47bf63bc3f328b22dd8b07b6</t>
+        </is>
+      </c>
+      <c r="N60" s="2" t="n">
+        <v>45903.45383265397</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>电商运营：2025科技内衣趋势洞察白皮书.pdf</t>
+          <t>2023仲量联行中国长租公寓市场白皮书.pdf</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\消费品\电商运营：2025科技内衣趋势洞察白皮书.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2023仲量联行中国长租公寓市场白皮书.pdf</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35.78</v>
+        <v>19.13</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45820.2577902214</v>
+        <v>45902.38596357877</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45820.2577902214</v>
+        <v>45565.39426902831</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45900.87051178221</v>
+        <v>45902.38597263966</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2473,29 +3255,42 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>ea88d84de080f4c28a3839bdf6cd012f</t>
+        </is>
+      </c>
+      <c r="N61" s="2" t="n">
+        <v>45903.45383265397</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>中国珠宝市场发展报告（2019—2024）.pdf</t>
+          <t>2023年宠物电商分析报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\消费品\中国珠宝市场发展报告（2019—2024）.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023年宠物电商分析报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3.21</v>
+        <v>9.33</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45658.91669370722</v>
+        <v>45902.38493815667</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45658.91669719995</v>
+        <v>45565.39924540124</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>45900.87086432362</v>
+        <v>45902.38498225847</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2506,29 +3301,42 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>bddb90db81d02034c89a8c1992035f79</t>
+        </is>
+      </c>
+      <c r="N62" s="2" t="n">
+        <v>45903.45383265397</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>大数跨境：2025全球耳机市场洞察报告.pdf</t>
+          <t>2024-2025商业地产数字化白皮书.pdf</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\消费品\大数跨境：2025全球耳机市场洞察报告.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2024-2025商业地产数字化白皮书.pdf</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7.84</v>
+        <v>8.19</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45658.91669022486</v>
+        <v>45902.3859730679</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45658.9166978018</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>45900.87094168366</v>
+        <v>45902.38598417331</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2539,29 +3347,42 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>4ba8f36b7df6f7040929b12a1207d272</t>
+        </is>
+      </c>
+      <c r="N63" s="2" t="n">
+        <v>45903.45383266551</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>即食鸡胸肉：即食肉类代餐食品崛起，低脂高蛋白的鸡胸肉是否能起飞？.pdf</t>
+          <t>2024宠物清洁用品趋势洞察报告.pdf</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\消费品\即食鸡胸肉：即食肉类代餐食品崛起，低脂高蛋白的鸡胸肉是否能起飞？.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024宠物清洁用品趋势洞察报告.pdf</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5.76</v>
+        <v>9.76</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45658.91669105372</v>
+        <v>45902.38496768626</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45658.91670048693</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>45900.87155713809</v>
+        <v>45902.38501987671</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2572,29 +3393,42 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>c55c126a0ef6632befdbccf1027216ba</t>
+        </is>
+      </c>
+      <c r="N64" s="2" t="n">
+        <v>45903.45383266551</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025科技内衣趋势洞察白皮书.pdf</t>
+          <t>2023年中国宠物肠胃健康白皮书（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\消费品\2025科技内衣趋势洞察白皮书.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023年中国宠物肠胃健康白皮书（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>26.5</v>
+        <v>25.6</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45820.25655365412</v>
+        <v>45902.38492840304</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45820.25656153126</v>
+        <v>45565.39925586407</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45900.87219282371</v>
+        <v>45902.38497167426</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2605,29 +3439,42 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>8b6dd4aa266d3db172160e1198e5f189</t>
+        </is>
+      </c>
+      <c r="N65" s="2" t="n">
+        <v>45903.45383266551</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2024年汽车线下渠道选址洞察报告——汽车商场开店影响因素篇.pdf</t>
+          <t>2024房地产白名单先立一视同仁举措，后破行业融资难题（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\消费品\2024年汽车线下渠道选址洞察报告——汽车商场开店影响因素篇.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2024房地产白名单先立一视同仁举措，后破行业融资难题（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6.67</v>
+        <v>2.39</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45658.91670510105</v>
+        <v>45902.38595814914</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45658.91670743127</v>
+        <v>45565.40480759952</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45900.87244092213</v>
+        <v>45902.38596642797</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2638,29 +3485,42 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2c123ca4c52ec304e3bf0bf67c01257c</t>
+        </is>
+      </c>
+      <c r="N66" s="2" t="n">
+        <v>45903.45383266551</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2024年度零售科技新锐企业研究报告-中国连锁经营协会.pdf</t>
+          <t>2024中国宠物食品行业研究框架：长坡厚雪，国产崛起（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\消费品\2024年度零售科技新锐企业研究报告-中国连锁经营协会.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024中国宠物食品行业研究框架：长坡厚雪，国产崛起（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45658.91671714914</v>
+        <v>45902.38495985984</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45658.91672062552</v>
+        <v>45565.39921637382</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>45900.87507880222</v>
+        <v>45902.38501000464</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2671,29 +3531,42 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>3bfce2de3104e1c1fda9d25b1bdac060</t>
+        </is>
+      </c>
+      <c r="N67" s="2" t="n">
+        <v>45903.45383266551</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>智慧安防小区管理应用平台建设方案.pdf</t>
+          <t>2023-2024年度中国宠物用品消费趋势报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\物联网\智慧安防小区管理应用平台建设方案.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023-2024年度中国宠物用品消费趋势报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2.79</v>
+        <v>4.61</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45658.91669437591</v>
+        <v>45902.38485846979</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45658.91669437591</v>
+        <v>45565.39927336385</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>45680.46958787227</v>
+        <v>45902.3848697684</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2704,29 +3577,42 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>665fcc75c2b2c2408a4856782bd01fe4</t>
+        </is>
+      </c>
+      <c r="N68" s="2" t="n">
+        <v>45903.45383266551</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2024年中国金融稳定报告-中国人民银行.pdf</t>
+          <t>2023中国宠物食品消费者行为洞察（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\经济金融\2024年中国金融稳定报告-中国人民银行.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023中国宠物食品消费者行为洞察（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4.58</v>
+        <v>6.86</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45658.91667962427</v>
+        <v>45902.38487424898</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45658.91668877415</v>
+        <v>45565.39920461471</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45671.34445310956</v>
+        <v>45902.38488996956</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2737,29 +3623,42 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0d7da79bc75ec9a2e3196283ea4c1057</t>
+        </is>
+      </c>
+      <c r="N69" s="2" t="n">
+        <v>45903.45383266551</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025跨境电商东南亚市场进入战略白皮书.pdf</t>
+          <t>2023全球宠物用品电商市场分析报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\经济金融\2025跨境电商东南亚市场进入战略白皮书.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023全球宠物用品电商市场分析报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>13.31</v>
+        <v>8.85</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45830.41182718133</v>
+        <v>45902.38487871164</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45830.41182723013</v>
+        <v>45565.39926114179</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>45833.34408470974</v>
+        <v>45902.38489999212</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2770,29 +3669,42 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>f6974feaaac5c3a6e726b5b43edd9354</t>
+        </is>
+      </c>
+      <c r="N70" s="2" t="n">
+        <v>45903.45383266551</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>养老金产品业务数据摘要2024年三季度-人社部.pdf</t>
+          <t>2023中国宠物食品经济展望报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\经济金融\养老金产品业务数据摘要2024年三季度-人社部.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023中国宠物食品经济展望报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.91</v>
+        <v>3.11</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45658.9166924778</v>
+        <v>45902.38487561472</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45658.9166924778</v>
+        <v>45565.39920405917</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>45671.3444778777</v>
+        <v>45902.38489241643</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2803,29 +3715,42 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>72b1c52b8174ed1ff7272dfbf6dbfaec</t>
+        </is>
+      </c>
+      <c r="N71" s="2" t="n">
+        <v>45903.45383266551</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>中国银河-央国企引领专题-通信篇-：提质重构，聚焦“链主”创新破局.pdf</t>
+          <t>2024宠物专题报告：如何看待宠物食品行业当前新渠道与价格战情况？（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\经济金融\中国银河-央国企引领专题-通信篇-：提质重构，聚焦“链主”创新破局.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024宠物专题报告：如何看待宠物食品行业当前新渠道与价格战情况？（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>10</v>
+        <v>3.52</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45658.91669520923</v>
+        <v>45902.38496454732</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45658.91669520923</v>
+        <v>45565.39921091092</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>45671.34447514625</v>
+        <v>45902.38501987671</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2836,29 +3761,42 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>eb6dcee762d846ad92a7f183252d52f3</t>
+        </is>
+      </c>
+      <c r="N72" s="2" t="n">
+        <v>45903.45383266551</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2024年知识产权行业发展趋势报告-探迹科技.pdf</t>
+          <t>2023宠物用品行业系列深度：宠物赛道弹性品种，成长可期（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\经济金融\2024年知识产权行业发展趋势报告-探迹科技.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物用品行业系列深度：宠物赛道弹性品种，成长可期（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>2.25</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45658.91669692218</v>
+        <v>45902.38489608009</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45658.91669692218</v>
+        <v>45565.39923026255</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>45671.34445644284</v>
+        <v>45902.38491955843</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2869,29 +3807,42 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>c7b48f2b17dcd55e295c40e9e1a7ed3a</t>
+        </is>
+      </c>
+      <c r="N73" s="2" t="n">
+        <v>45903.45383266551</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025年世界投资报告（英文）.pdf</t>
+          <t>2023宠物用品企业出海营销方案（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\经济金融\2025年世界投资报告（英文）.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物用品企业出海营销方案（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7.34</v>
+        <v>2.66</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45830.41278961661</v>
+        <v>45902.38489471967</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45830.41279221945</v>
+        <v>45565.39922813294</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>45833.34408304308</v>
+        <v>45902.38491692449</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2902,29 +3853,42 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>9cbc29e03878d4c88bc6ce1a7a24eff5</t>
+        </is>
+      </c>
+      <c r="N74" s="2" t="n">
+        <v>45903.45383266551</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>中国金融债权全球追索年度报告2025.pdf</t>
+          <t>2024年10月TikTok美区宠物用品品类分析报告.pdf</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\经济金融\中国金融债权全球追索年度报告2025.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024年10月TikTok美区宠物用品品类分析报告.pdf</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>28.12</v>
+        <v>18.06</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45844.23157926781</v>
+        <v>45902.38497900616</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45844.23158419914</v>
+        <v>25569.33333333333</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>45849.34486067228</v>
+        <v>45902.38504150423</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2935,29 +3899,42 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>8e567d58ce26270b9671c9f7f180e773</t>
+        </is>
+      </c>
+      <c r="N75" s="2" t="n">
+        <v>45903.45383267703</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>拉萨市投资促进局：2025拉萨市投资指南.pdf</t>
+          <t>2023中国宠物行业发展趋势报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\经济金融\拉萨市投资促进局：2025拉萨市投资指南.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023中国宠物行业发展趋势报告（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>21.94</v>
+        <v>3.87</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45830.4036956533</v>
+        <v>45902.38487038183</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45830.4036956533</v>
+        <v>45565.39920567951</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>45833.34409521888</v>
+        <v>45902.384882126</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2968,29 +3945,42 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>7212797b6a97bf79f4bd7620f93aaf76</t>
+        </is>
+      </c>
+      <c r="N76" s="2" t="n">
+        <v>45903.45383267703</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>小吃快餐品类发展报告2024.pdf</t>
+          <t>2023宠物行业观察系列：人宠货场四维解构国内宠物食品行业（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>\\NAS\study\research_reports\餐饮服务\小吃快餐品类发展报告2024.pdf</t>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物行业观察系列：人宠货场四维解构国内宠物食品行业（公众号：资源共生库，整理）.pdf</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6.66</v>
+        <v>2.22</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45658.91669224632</v>
+        <v>45902.38491632264</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45658.91669224632</v>
+        <v>45565.3992253552</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>45678.44316367724</v>
+        <v>45902.3849491689</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3001,6 +3991,2365 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>717a22cdc10d1b0d6dc137793a6dd3a3</t>
+        </is>
+      </c>
+      <c r="N77" s="2" t="n">
+        <v>45903.45383267703</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023年中国宠物健康消费白皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023年中国宠物健康消费白皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45902.38492500542</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45565.39925674369</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>45902.38496673016</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>f8dc320eea7ca3a08ec3399e5c20cf42</t>
+        </is>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>45903.45383267703</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023年淘系宠物健康赛道趋势洞察报告-TMIC&amp;天猫宠物&amp;有谋.pdf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023年淘系宠物健康赛道趋势洞察报告-TMIC&amp;天猫宠物&amp;有谋.pdf</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45902.38494104525</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>45902.38498459842</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>6babb74903e668c0bb81209a17587a7b</t>
+        </is>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>45903.45383267703</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024撸可撸可萌宠派对 五一翻天 宠物主题活动方案（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024撸可撸可萌宠派对 五一翻天 宠物主题活动方案（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45902.38498656601</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45565.39921461458</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>45902.38505179513</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>99fabdbf114119a1489b22465c089c81</t>
+        </is>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>45903.45383267703</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024Q4长三角城市群物流报告-JLL.pdf</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2024Q4长三角城市群物流报告-JLL.pdf</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45902.38597705611</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>45902.38599031665</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>9caeaf19414c1239f9bb48665466ea60</t>
+        </is>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>45903.45383267703</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>“火锅+现制饮品”研究报告2024.pdf</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\餐饮服务\“火锅+现制饮品”研究报告2024.pdf</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45902.38561235122</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>45902.38567518434</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>21495200d9bb7c5ed3da363057a61094</t>
+        </is>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>45903.45383267703</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023水族小宠场景趋势白皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023水族小宠场景趋势白皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45902.38494397997</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45565.39919776294</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>45902.3849896976</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>cd3bfe3e8166a96e0727f45b15cea16f</t>
+        </is>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>45903.45383267703</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023宠物行业专题报告：后疫情时代，宠物赛道长坡厚雪（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物行业专题报告：后疫情时代，宠物赛道长坡厚雪（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45902.38490220511</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45565.39922729962</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>45902.3849271299</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>14c6cfc76c2407fc928fef2eb7765c89</t>
+        </is>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>45903.45383267703</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025宠物食品行业简析报告.pdf</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2025宠物食品行业简析报告.pdf</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45902.38501837681</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>45902.38508625502</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>ddd795ea8b480a98d93e2288d1a717a3</t>
+        </is>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>45903.45383267703</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023小红书蒲公英平台宠物行业投放指南（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023小红书蒲公英平台宠物行业投放指南（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45902.38492073898</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45565.39919836479</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>45902.38495796661</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0b542a3c524915916ba486782632adbf</t>
+        </is>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>45903.45383267703</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023巨量引擎宠物行业白皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023巨量引擎宠物行业白皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45902.38492215101</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45565.39923637357</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>45902.38496033438</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>8ac19caa66325e16581c6f48b3054783</t>
+        </is>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>45903.45383268857</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024宠物行业深度报告系列：宠物行业细分赛道解析（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024宠物行业深度报告系列：宠物行业细分赛道解析（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45902.3849748547</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45565.39920975354</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>45902.38502880442</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>251cdd9b9dac257edd71e888835ce5f1</t>
+        </is>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>45903.45383268857</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023宠物数字化保险发展趋势洞察白皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物数字化保险发展趋势洞察白皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45902.38488677513</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45565.39928234522</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>45902.3849079827</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>f5363d01abaf0799bc75a628ee8d5877</t>
+        </is>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>45903.45383268857</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023年猫狗保健品行业调研报告-淘宝抖音-解数咨询.pdf</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023年猫狗保健品行业调研报告-淘宝抖音-解数咨询.pdf</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45902.38494242256</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45565.39675302501</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>45902.38498708685</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>38744afdc0fc3b26e58940f18f45cee8</t>
+        </is>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>45903.45383268857</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023宠物猫主粮行业调研（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物猫主粮行业调研（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45902.38489215022</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45565.39927623419</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>45902.38491427404</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>f5075e744efbddd315104cad4136e208</t>
+        </is>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>45903.45383268857</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023日本宠物食品行业复盘：从伊纳宝的崛起看国内宠物湿粮发展（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023日本宠物食品行业复盘：从伊纳宝的崛起看国内宠物湿粮发展（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45902.38494330869</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45565.39926438249</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>45902.38498708685</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>5637f49910860d55decf5fbcfac91521</t>
+        </is>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>45903.45383268857</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024年中国宠物管理行业白皮书-重庆西部宠物生命科学研究院.pdf</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024年中国宠物管理行业白皮书-重庆西部宠物生命科学研究院.pdf</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45902.3849840313</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>45902.38504676854</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>357ad2a3e887eabb7e83d7fd015fd4b1</t>
+        </is>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>45903.45383268857</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2023跨境电商宠物品类市场数据报告（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023跨境电商宠物品类市场数据报告（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45902.38495203926</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45565.3992339199</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>45902.38499950805</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>84577b2ae6e198ecc9a9e628864935c8</t>
+        </is>
+      </c>
+      <c r="N94" s="2" t="n">
+        <v>45903.45383268857</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024宠物行业研究报告：多重因素推动宠物市场扩容，行业前景未来可期（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024宠物行业研究报告：多重因素推动宠物市场扩容，行业前景未来可期（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45902.38497563017</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45565.39920984612</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>45902.38503114764</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>546de7907c2e1749d603ae878494556c</t>
+        </is>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v>45903.45383268857</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023中国宠物行业趋势洞察白皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023中国宠物行业趋势洞察白皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45902.38487378602</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45565.39920623506</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>45902.38488998113</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>ef444f3b7481983ee9bb13686f519f2a</t>
+        </is>
+      </c>
+      <c r="N96" s="2" t="n">
+        <v>45903.45383268857</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023美国宠物用品市场趋势洞察（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023美国宠物用品市场趋势洞察（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45902.3849447786</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45565.39923493841</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>45902.38499215776</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>baf60dd79d3373075d2f3af558a5ddad</t>
+        </is>
+      </c>
+      <c r="N97" s="2" t="n">
+        <v>45903.45383268857</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025宠物医疗行业简析报告.pdf</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2025宠物医疗行业简析报告.pdf</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45902.3850043026</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>45902.38506907925</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>5691d60d0c26f4a3c85dc2b4cd829467</t>
+        </is>
+      </c>
+      <c r="N98" s="2" t="n">
+        <v>45903.45383270011</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>【VIS】庙街香港火锅VI设计.pptx</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\餐饮服务\【VIS】庙街香港火锅VI设计.pptx</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45902.38561774179</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45566.03287912717</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>45902.38567830183</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>.pptx</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>544aae664e05f9fa41c18c71e188c74e</t>
+        </is>
+      </c>
+      <c r="N99" s="2" t="n">
+        <v>45903.45383270011</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024春日宠物集市“超萌星人派对主题活动策划方案x（公众号：资源共生库，整理）.pptx</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024春日宠物集市“超萌星人派对主题活动策划方案x（公众号：资源共生库，整理）.pptx</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45902.38498937353</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45565.39921368867</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>45902.3850544289</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>.pptx</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>84a3d3c6f40ef84d927fde670f89346a</t>
+        </is>
+      </c>
+      <c r="N100" s="2" t="n">
+        <v>45903.45383270011</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2023宠物深行业咬胶龙头自主品牌蓬勃发展（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物深行业咬胶龙头自主品牌蓬勃发展（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45902.3848912243</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45565.39927753047</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>45902.38491158223</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>31ab429af4f3142c7f258b51479c4fe9</t>
+        </is>
+      </c>
+      <c r="N101" s="2" t="n">
+        <v>45903.45383270011</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2023中国洗碗机朝思暮享先锋手册-中国家电网.pdf</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2023中国洗碗机朝思暮享先锋手册-中国家电网.pdf</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45902.38596027879</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45565.39432833312</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>45902.3859691262</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>915ca34c4d0748bcd11441410f238c8b</t>
+        </is>
+      </c>
+      <c r="N102" s="2" t="n">
+        <v>45903.45383270011</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023世界宠物市场趋势（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023世界宠物市场趋势（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>37.54</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45902.38486204134</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45565.39927243794</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>45902.38487458464</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>4e177ed3e68127133c6d4e218fb4590b</t>
+        </is>
+      </c>
+      <c r="N103" s="2" t="n">
+        <v>45903.45383270011</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023年中国宠物新消费潜力洞察蓝皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023年中国宠物新消费潜力洞察蓝皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45902.38492572944</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45565.39926294731</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>45902.38496920247</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>55797742c565b65e8456b8f235f57f99</t>
+        </is>
+      </c>
+      <c r="N104" s="2" t="n">
+        <v>45903.45383270011</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023宠物行业发展报告（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物行业发展报告（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45902.38490660998</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45565.39922512371</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>45902.38493358334</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>7d4418cea2e4cebe9372b772748cf819</t>
+        </is>
+      </c>
+      <c r="N105" s="2" t="n">
+        <v>45903.45383270011</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2023宠物用品行业报告：它经济之风正盛宠物用品迎新机遇（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物用品行业报告：它经济之风正盛宠物用品迎新机遇（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45902.38489556457</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45565.39922785516</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>45902.38491690133</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>9039093f2710057e7ec620e6240a276f</t>
+        </is>
+      </c>
+      <c r="N106" s="2" t="n">
+        <v>45903.45383270011</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025宠物食品市场线上消费趋势洞察.pdf</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2025宠物食品市场线上消费趋势洞察.pdf</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45902.38501743272</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>45902.38508373189</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>9e761cd77d8c837ea2253be2674c1f79</t>
+        </is>
+      </c>
+      <c r="N107" s="2" t="n">
+        <v>45903.45383270011</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2023宠物食品行业研究框架（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物食品行业研究框架（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45902.38491954685</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45565.3992857711</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>45902.38495172674</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>7d79491af396ae3c0a0a2c850bcd747e</t>
+        </is>
+      </c>
+      <c r="N108" s="2" t="n">
+        <v>45903.45383271165</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025宠物殡葬用品洞察报告.pdf</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2025宠物殡葬用品洞察报告.pdf</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45902.38500660686</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>45902.38507385417</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>a72d44a011e6560f937e9347eb8c5835</t>
+        </is>
+      </c>
+      <c r="N109" s="2" t="n">
+        <v>45903.45383271165</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024年Q3宠物洗护品类市场分析与新品趋势洞察.pdf</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024年Q3宠物洗护品类市场分析与新品趋势洞察.pdf</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45902.38498297125</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>45902.38504421575</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>cdd98c3a7422f21e30dcde778fb32c49</t>
+        </is>
+      </c>
+      <c r="N110" s="2" t="n">
+        <v>45903.45383271165</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023动物保健行业专题：新瑞鹏，凌空展翅，国内领先的宠物护理平台（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023动物保健行业专题：新瑞鹏，凌空展翅，国内领先的宠物护理平台（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45902.38488124637</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45565.39923040142</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>45902.38490273753</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>bff7b2c1086d78ac64ef2494a00007ec</t>
+        </is>
+      </c>
+      <c r="N111" s="2" t="n">
+        <v>45903.45383271165</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025宠物品牌网红营销报告——Nox聚星.pdf</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2025宠物品牌网红营销报告——Nox聚星.pdf</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45902.38500561046</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>45902.38507145832</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>d297dc3f760da3ab37ee5ef32e7184e2</t>
+        </is>
+      </c>
+      <c r="N112" s="2" t="n">
+        <v>45903.45383271165</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024消费出海系列研究：宠物食品出口明显改善，自主品牌出海新机遇（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024消费出海系列研究：宠物食品出口明显改善，自主品牌出海新机遇（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45902.38499468775</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45565.39921479977</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>45902.38505941733</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>421a83f58c0104e1752f5508250682fc</t>
+        </is>
+      </c>
+      <c r="N113" s="2" t="n">
+        <v>45903.45383271165</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2023宠物全方位探究宠物食品赛道的稀缺性_趋势与投资机会（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物全方位探究宠物食品赛道的稀缺性_趋势与投资机会（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45902.38488288988</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45565.39927711381</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>45902.38490536482</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>f38d03be19bc49c6a46975b0415eb440</t>
+        </is>
+      </c>
+      <c r="N114" s="2" t="n">
+        <v>45903.45383271165</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2023-2024中国宠物行业绿皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023-2024中国宠物行业绿皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45902.38485505432</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45565.39927683603</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>45902.38486392872</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>361552d86221ad7a31081d374335539d</t>
+        </is>
+      </c>
+      <c r="N115" s="2" t="n">
+        <v>45903.45383271165</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2023宠物喂食器行业分析报告（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物喂食器行业分析报告（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45902.38488361905</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45565.39928535445</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>45902.38490779749</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>e74fc1c4f8324955f1f3a84f91f92ea7</t>
+        </is>
+      </c>
+      <c r="N116" s="2" t="n">
+        <v>45903.45383271165</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2023宠物行业专题报告：谁有可能在中国成为大型宠物食品龙头企业？（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物行业专题报告：谁有可能在中国成为大型宠物食品龙头企业？（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45902.38490302688</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45565.39922753109</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>45902.38493046323</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>7284ef18ea274a228338f2b6a72fd6f6</t>
+        </is>
+      </c>
+      <c r="N117" s="2" t="n">
+        <v>45903.45383271165</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-2025年全国产城行业形势报告.pdf</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\房地产\2024-2025年全国产城行业形势报告.pdf</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45902.38596825815</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>45902.38597900313</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>a32fd3efdfe0c1e3e899c192974e3ffe</t>
+        </is>
+      </c>
+      <c r="N118" s="2" t="n">
+        <v>45903.45383271165</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2023小红书宠物行业内容营销宝典（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023小红书宠物行业内容营销宝典（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45902.38492026444</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45565.399199337</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>45902.38495405457</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>5e3ee1d1da6029624fb67355495b6eb3</t>
+        </is>
+      </c>
+      <c r="N119" s="2" t="n">
+        <v>45903.45383271165</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2023萌宠乐园宠爱无限七夕情人节宠物主题活动方案-33Px（公众号：资源共生库，整理）.pptx</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023萌宠乐园宠爱无限七夕情人节宠物主题活动方案-33Px（公众号：资源共生库，整理）.pptx</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45902.38494561194</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45565.39924077167</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>45902.3849960474</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>.pptx</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>238113f1cf87a3f104e609e350c476ab</t>
+        </is>
+      </c>
+      <c r="N120" s="2" t="n">
+        <v>45903.45383272319</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>（英）全球在线外卖行业报告-摩根大通.pdf</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\餐饮服务\（英）全球在线外卖行业报告-摩根大通.pdf</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45902.38560934197</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>45902.38568282728</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>3af099c7048bfa80c0477c2a43dc5a93</t>
+        </is>
+      </c>
+      <c r="N121" s="2" t="n">
+        <v>45903.45383272319</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024宠物食品行业研究报告（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024宠物食品行业研究报告（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45902.38497783078</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45565.39920956836</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>45902.38503859264</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>64894ce6abc095bf7486c748aeeb3c6f</t>
+        </is>
+      </c>
+      <c r="N122" s="2" t="n">
+        <v>45903.45383272319</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2023宠物行业发展报告简版（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物行业发展报告简版（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45902.38490382548</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45565.39922373484</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>45902.3849304285</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>fca3608113a7248ebfc849b96e9d6450</t>
+        </is>
+      </c>
+      <c r="N123" s="2" t="n">
+        <v>45903.45383272319</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>“保健水晶鸡、鸭皮蛋”商业计划书.docx</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\餐饮服务\“保健水晶鸡、鸭皮蛋”商业计划书.docx</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45902.38561093919</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>25569.33333333333</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>45902.38568520136</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>.docx</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>4fe3b4b26c7693a145d67bc6f0d89533</t>
+        </is>
+      </c>
+      <c r="N124" s="2" t="n">
+        <v>45903.45383272319</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2024宠物犬饲养白皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2024宠物犬饲养白皮书（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45902.38496981589</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45565.39920771653</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>45902.38502226097</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>e39191a686770dffd833495c1968d603</t>
+        </is>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>45903.45383272319</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2023宠物箱包出海趋势洞察报告（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物箱包出海趋势洞察报告（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45902.38489682082</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45565.39928748405</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>45902.38492204685</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>600eb2f150b77fae5657fe33dcc484e6</t>
+        </is>
+      </c>
+      <c r="N126" s="2" t="n">
+        <v>45903.45383272319</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2023宠物经济小微观察报告-DT研究院.pdf</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023宠物经济小微观察报告-DT研究院.pdf</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>45902.3848979088</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45565.39749343242</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>45902.38492461191</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>20b2922934472c73fae925d4b9fe9673</t>
+        </is>
+      </c>
+      <c r="N127" s="2" t="n">
+        <v>45903.45383272319</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2023中国宠物行业新趋势洞察报告（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>E:\project\sideline\changshashuziyoumin\research-report-list\宠物服务\2023中国宠物行业新趋势洞察报告（公众号：资源共生库，整理）.pdf</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45902.38487230978</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45565.39920660543</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>45902.38488465707</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>.pdf</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>ca71d28deebea79c3179db41874188ad</t>
+        </is>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>45903.45383272319</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
